--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T16:41:17+00:00</t>
+    <t>2022-04-12T16:48:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -362,7 +362,7 @@
 </t>
   </si>
   <si>
-    <t>lable</t>
+    <t>label</t>
   </si>
   <si>
     <t>description</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension : Questionnaire.item </t>
+    <t xml:space="preserve">Extension : Questionnaire.item.settings </t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T16:48:09+00:00</t>
+    <t>2022-04-12T16:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">Settings </t>
+    <t xml:space="preserve">Extension : Settings </t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T16:59:25+00:00</t>
+    <t>2022-04-12T17:07:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:07:36+00:00</t>
+    <t>2022-04-12T17:18:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:18:11+00:00</t>
+    <t>2022-04-12T17:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:29:23+00:00</t>
+    <t>2022-04-12T17:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:46:11+00:00</t>
+    <t>2022-04-12T17:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
